--- a/config_8.3/rank_server.xlsx
+++ b/config_8.3/rank_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -2988,7 +2988,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -3124,6 +3124,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3403,9 +3406,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V60"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M56" sqref="M56"/>
+      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5398,7 +5401,7 @@
       <c r="B56" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="C56" s="40" t="s">
+      <c r="C56" s="50" t="s">
         <v>688</v>
       </c>
       <c r="D56" s="40" t="s">
@@ -10713,7 +10716,7 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
+      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11545,9 +11548,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
+      <selection pane="bottomLeft" activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12277,8 +12280,8 @@
   <dimension ref="A1:I386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A311" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G331" sqref="G331:G337"/>
+      <pane ySplit="1" topLeftCell="A332" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B352" sqref="B352:H358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -21563,8 +21566,8 @@
   <dimension ref="A1:G521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A399" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B405" sqref="B405:E417"/>
+      <pane ySplit="1" topLeftCell="A444" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B457" sqref="B457:F469"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
